--- a/01-Resignation-Predictor/cluster_data/cluster_data.xlsx
+++ b/01-Resignation-Predictor/cluster_data/cluster_data.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Zip Code</t>
+          <t>Zip_Code</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,27 +451,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Employee Annual Salary$</t>
+          <t>Employee_Annual_Salary</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Medical contribution$</t>
+          <t>Monthly_Medical_contribution</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Dental Contribution$</t>
+          <t>Monthly_Dental_Contribution</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Monthly Vision Contribution$</t>
+          <t>Monthly_Vision_Contribution</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Bonus $</t>
+          <t>Bonus</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -491,12 +491,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Employee HR rate</t>
+          <t>Employee_HR_rate</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t># of Hours per week</t>
+          <t>Hours_per_week</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
